--- a/battery_calculations.xlsx
+++ b/battery_calculations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anunez/code-home/platformio-projects/SoilLoraSensor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C1037F-1D4F-5C48-AA00-615898920FDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B785B2A-AEBE-9941-9EB3-69DEF3B10CDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3580" yWindow="2560" windowWidth="27240" windowHeight="16440" xr2:uid="{274C38AF-7C22-4540-ABA6-4F5A66EA3CC3}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t>Time On (ms)</t>
   </si>
@@ -114,6 +114,9 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>STM32+RFM95+reed_switch</t>
   </si>
 </sst>
 </file>
@@ -157,9 +160,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -197,9 +201,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8C57FF99-E9F4-CE4C-B46B-FF3B2EA4D462}" name="Table1" displayName="Table1" ref="A1:G24" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:G24" xr:uid="{973764B0-F1C1-E840-95CA-5EC7A0C0E812}"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8C57FF99-E9F4-CE4C-B46B-FF3B2EA4D462}" name="Table1" displayName="Table1" ref="A1:H24" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:H24" xr:uid="{973764B0-F1C1-E840-95CA-5EC7A0C0E812}"/>
+  <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{4A3EFBDC-1ABE-6942-9548-1FEDCA033667}" name=" "/>
     <tableColumn id="2" xr3:uid="{6357B905-3806-9D40-A092-4BA5147C3122}" name="Bluetooth"/>
     <tableColumn id="3" xr3:uid="{D57D7C92-6721-AB4E-AA03-5869F7E81CE5}" name="ATMega32p+RFM95+Soil"/>
@@ -207,6 +211,7 @@
     <tableColumn id="5" xr3:uid="{0431DD77-4996-F544-A958-7132EF04D40F}" name="STM32+RFM95+Ultrasound"/>
     <tableColumn id="6" xr3:uid="{9B5D7D8D-5E8B-D148-B044-12FAC1C1B93D}" name="STM32+RFM95+LIDAR"/>
     <tableColumn id="7" xr3:uid="{8FC7B591-997C-5F48-AE11-7ED6D764AB44}" name="STM32+RFM95"/>
+    <tableColumn id="8" xr3:uid="{9D0FA73E-C533-7943-8C8B-B3DF4583F717}" name="STM32+RFM95+reed_switch"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -509,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52567555-7904-274C-B5DF-D958953835E1}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -520,13 +525,14 @@
     <col min="1" max="1" width="27.6640625" customWidth="1"/>
     <col min="2" max="2" width="11.5" customWidth="1"/>
     <col min="3" max="3" width="24.1640625" customWidth="1"/>
-    <col min="4" max="4" width="28" customWidth="1"/>
+    <col min="4" max="4" width="20.1640625" customWidth="1"/>
     <col min="5" max="5" width="26.6640625" customWidth="1"/>
     <col min="6" max="6" width="23.1640625" customWidth="1"/>
-    <col min="7" max="7" width="18.5" customWidth="1"/>
+    <col min="7" max="7" width="16.83203125" customWidth="1"/>
+    <col min="8" max="8" width="26.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -548,8 +554,11 @@
       <c r="G1" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
@@ -571,8 +580,11 @@
       <c r="G2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -585,8 +597,11 @@
       <c r="G3">
         <v>40</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -599,8 +614,11 @@
       <c r="G4">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H4">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -622,8 +640,11 @@
       <c r="G5">
         <v>50</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -645,8 +666,11 @@
       <c r="G6">
         <v>120</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H6">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -665,8 +689,11 @@
       <c r="G7">
         <v>2000</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H7">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -685,8 +712,11 @@
       <c r="G8">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H8">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
@@ -708,8 +738,11 @@
       <c r="G9">
         <v>2E-3</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H9">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -722,8 +755,11 @@
       <c r="G10">
         <v>60</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
@@ -745,8 +781,12 @@
       <c r="G11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H11" s="2">
+        <f>2/24</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -768,8 +808,11 @@
       <c r="G12">
         <v>1400</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H12">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -785,124 +828,144 @@
         <f>G3*G4*G10/3600</f>
         <v>0.26666666666666666</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H16">
+        <f>H3*H4*H10/3600</f>
+        <v>3.3333333333333335E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>12</v>
       </c>
       <c r="B17">
-        <f>B5*B6*B11/3600</f>
+        <f t="shared" ref="B17:G17" si="0">B5*B6*B11/3600</f>
         <v>83.333333333333329</v>
       </c>
       <c r="C17">
-        <f>C5*C6*C11/3600</f>
+        <f t="shared" si="0"/>
         <v>16.25</v>
       </c>
       <c r="D17">
-        <f>D5*D6*D11/3600</f>
+        <f t="shared" si="0"/>
         <v>1.6666666666666667</v>
       </c>
       <c r="E17">
-        <f>E5*E6*E11/3600</f>
+        <f t="shared" si="0"/>
         <v>1.6666666666666667</v>
       </c>
       <c r="F17">
-        <f>F5*F6*F11/3600</f>
+        <f t="shared" si="0"/>
         <v>1.6666666666666667</v>
       </c>
       <c r="G17">
-        <f>G5*G6*G11/3600</f>
+        <f t="shared" si="0"/>
         <v>1.6666666666666667</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H17">
+        <f t="shared" ref="H17" si="1">H5*H6*H11/3600</f>
+        <v>0.1388888888888889</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>13</v>
       </c>
       <c r="B18">
-        <f>B7*B8*B11/3600</f>
+        <f t="shared" ref="B18:G18" si="2">B7*B8*B11/3600</f>
         <v>0</v>
       </c>
       <c r="C18">
-        <f>C7*C8*C11/3600</f>
+        <f t="shared" si="2"/>
         <v>13.333333333333334</v>
       </c>
       <c r="D18">
-        <f>D7*D8*D11/3600</f>
+        <f t="shared" si="2"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="E18">
-        <f>E7*E8*E11/3600</f>
+        <f t="shared" si="2"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="F18">
-        <f>F7*F8*F11/3600</f>
+        <f t="shared" si="2"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="G18">
-        <f>G7*G8*G11/3600</f>
+        <f t="shared" si="2"/>
         <v>0.16666666666666666</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H18">
+        <f t="shared" ref="H18" si="3">H7*H8*H11/3600</f>
+        <v>1.3888888888888888E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>14</v>
       </c>
       <c r="B19">
-        <f>B9*1000</f>
+        <f t="shared" ref="B19:G19" si="4">B9*1000</f>
         <v>30</v>
       </c>
       <c r="C19">
-        <f>C9*1000</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="D19">
-        <f>D9*1000</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="E19">
-        <f>E9*1000</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="F19">
-        <f>F9*1000</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="G19">
-        <f>G9*1000</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H19">
+        <f t="shared" ref="H19" si="5">H9*1000</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>4</v>
       </c>
       <c r="B20">
-        <f>(B17+B18)/(B17+B18+B19)</f>
+        <f t="shared" ref="B20:H20" si="6">(B17+B18)/(B17+B18+B19)</f>
         <v>0.73529411764705876</v>
       </c>
       <c r="C20">
-        <f>(C17+C18)/(C17+C18+C19)</f>
+        <f t="shared" si="6"/>
         <v>0.85542168674698793</v>
       </c>
       <c r="D20">
-        <f>(D17+D18)/(D17+D18+D19)</f>
+        <f t="shared" si="6"/>
         <v>0.37931034482758619</v>
       </c>
       <c r="E20">
-        <f>(E17+E18)/(E17+E18+E19)</f>
+        <f t="shared" si="6"/>
         <v>0.47826086956521741</v>
       </c>
       <c r="F20">
-        <f>(F17+F18)/(F17+F18+F19)</f>
+        <f t="shared" si="6"/>
         <v>0.47826086956521741</v>
       </c>
       <c r="G20">
-        <f>(G17+G18)/(G17+G18+G19)</f>
+        <f t="shared" si="6"/>
         <v>0.47826086956521741</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H20">
+        <f t="shared" si="6"/>
+        <v>7.0967741935483886E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -930,34 +993,42 @@
         <f>24*365*(G16+G17+G18+G19)/1000</f>
         <v>35.915999999999997</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H23">
+        <f>24*365*(H16+H17+H18+H19)/1000</f>
+        <v>18.887533333333334</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B24" s="1">
-        <f>B12/B23</f>
+        <f t="shared" ref="B24:H24" si="7">B12/B23</f>
         <v>3.0217566478646254</v>
       </c>
       <c r="C24" s="1">
-        <f>C12/C23</f>
+        <f t="shared" si="7"/>
         <v>4.951312097705892</v>
       </c>
       <c r="D24" s="1">
-        <f>D12/D23</f>
+        <f t="shared" si="7"/>
         <v>33.065658951346236</v>
       </c>
       <c r="E24" s="1">
-        <f>E12/E23</f>
+        <f t="shared" si="7"/>
         <v>22.300095571838163</v>
       </c>
       <c r="F24" s="1">
-        <f>F12/F23</f>
+        <f t="shared" si="7"/>
         <v>23.387905111927829</v>
       </c>
       <c r="G24" s="1">
-        <f>G12/G23</f>
+        <f t="shared" si="7"/>
         <v>38.979841853213053</v>
+      </c>
+      <c r="H24" s="1">
+        <f t="shared" si="7"/>
+        <v>15.883492815366749</v>
       </c>
     </row>
   </sheetData>

--- a/battery_calculations.xlsx
+++ b/battery_calculations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anunez/code-home/platformio-projects/SoilLoraSensor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B785B2A-AEBE-9941-9EB3-69DEF3B10CDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{281172F0-AF69-2C49-ABAC-17A5ABEE6116}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3580" yWindow="2560" windowWidth="27240" windowHeight="16440" xr2:uid="{274C38AF-7C22-4540-ABA6-4F5A66EA3CC3}"/>
   </bookViews>
@@ -517,7 +517,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -739,7 +739,7 @@
         <v>2E-3</v>
       </c>
       <c r="H9">
-        <v>2E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -809,7 +809,7 @@
         <v>1400</v>
       </c>
       <c r="H12">
-        <v>300</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -929,7 +929,7 @@
       </c>
       <c r="H19">
         <f t="shared" ref="H19" si="5">H9*1000</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -962,7 +962,7 @@
       </c>
       <c r="H20">
         <f t="shared" si="6"/>
-        <v>7.0967741935483886E-2</v>
+        <v>4.8458149779735692E-2</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -995,7 +995,7 @@
       </c>
       <c r="H23">
         <f>24*365*(H16+H17+H18+H19)/1000</f>
-        <v>18.887533333333334</v>
+        <v>27.647533333333332</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -1028,7 +1028,7 @@
       </c>
       <c r="H24" s="1">
         <f t="shared" si="7"/>
-        <v>15.883492815366749</v>
+        <v>50.637428776045127</v>
       </c>
     </row>
   </sheetData>

--- a/battery_calculations.xlsx
+++ b/battery_calculations.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anunez/code-home/platformio-projects/SoilLoraSensor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{281172F0-AF69-2C49-ABAC-17A5ABEE6116}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{412C142D-DC04-324C-8B38-6F2CAE9948A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3580" yWindow="2560" windowWidth="27240" windowHeight="16440" xr2:uid="{274C38AF-7C22-4540-ABA6-4F5A66EA3CC3}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
   <si>
     <t>Time On (ms)</t>
   </si>
@@ -98,12 +98,6 @@
     <t>STM32+RFM95+Ultrasound</t>
   </si>
   <si>
-    <t>STM32+RFM95+LIDAR</t>
-  </si>
-  <si>
-    <t>STM32+RFM95</t>
-  </si>
-  <si>
     <t>Implemented</t>
   </si>
   <si>
@@ -116,7 +110,16 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>STM32+RFM95+reed_switch</t>
+    <t>tracker v1</t>
+  </si>
+  <si>
+    <t>generic_v1</t>
+  </si>
+  <si>
+    <t>generic_v1+distance</t>
+  </si>
+  <si>
+    <t>generic_v1_doors</t>
   </si>
 </sst>
 </file>
@@ -201,17 +204,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8C57FF99-E9F4-CE4C-B46B-FF3B2EA4D462}" name="Table1" displayName="Table1" ref="A1:H24" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:H24" xr:uid="{973764B0-F1C1-E840-95CA-5EC7A0C0E812}"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8C57FF99-E9F4-CE4C-B46B-FF3B2EA4D462}" name="Table1" displayName="Table1" ref="A1:I24" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:I24" xr:uid="{973764B0-F1C1-E840-95CA-5EC7A0C0E812}"/>
+  <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{4A3EFBDC-1ABE-6942-9548-1FEDCA033667}" name=" "/>
     <tableColumn id="2" xr3:uid="{6357B905-3806-9D40-A092-4BA5147C3122}" name="Bluetooth"/>
     <tableColumn id="3" xr3:uid="{D57D7C92-6721-AB4E-AA03-5869F7E81CE5}" name="ATMega32p+RFM95+Soil"/>
     <tableColumn id="4" xr3:uid="{CC6C467E-F970-7A48-9B19-5F1172D259E7}" name="STM32+RFM95+Soil"/>
     <tableColumn id="5" xr3:uid="{0431DD77-4996-F544-A958-7132EF04D40F}" name="STM32+RFM95+Ultrasound"/>
-    <tableColumn id="6" xr3:uid="{9B5D7D8D-5E8B-D148-B044-12FAC1C1B93D}" name="STM32+RFM95+LIDAR"/>
-    <tableColumn id="7" xr3:uid="{8FC7B591-997C-5F48-AE11-7ED6D764AB44}" name="STM32+RFM95"/>
-    <tableColumn id="8" xr3:uid="{9D0FA73E-C533-7943-8C8B-B3DF4583F717}" name="STM32+RFM95+reed_switch"/>
+    <tableColumn id="6" xr3:uid="{9B5D7D8D-5E8B-D148-B044-12FAC1C1B93D}" name="generic_v1+distance"/>
+    <tableColumn id="7" xr3:uid="{8FC7B591-997C-5F48-AE11-7ED6D764AB44}" name="generic_v1"/>
+    <tableColumn id="8" xr3:uid="{9D0FA73E-C533-7943-8C8B-B3DF4583F717}" name="generic_v1_doors"/>
+    <tableColumn id="9" xr3:uid="{D5933642-BD87-744C-9BB1-D38E1F846C0D}" name="tracker v1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -514,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52567555-7904-274C-B5DF-D958953835E1}">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -529,12 +533,13 @@
     <col min="5" max="5" width="26.6640625" customWidth="1"/>
     <col min="6" max="6" width="23.1640625" customWidth="1"/>
     <col min="7" max="7" width="16.83203125" customWidth="1"/>
-    <col min="8" max="8" width="26.5" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" customWidth="1"/>
+    <col min="9" max="9" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>5</v>
@@ -549,42 +554,48 @@
         <v>20</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="B2" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -600,8 +611,11 @@
       <c r="H3">
         <v>40</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -617,8 +631,11 @@
       <c r="H4">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -643,8 +660,11 @@
       <c r="H5">
         <v>50</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -669,8 +689,11 @@
       <c r="H6">
         <v>120</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I6">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -692,8 +715,11 @@
       <c r="H7">
         <v>2000</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I7">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -715,8 +741,11 @@
       <c r="H8">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I8">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
@@ -741,8 +770,11 @@
       <c r="H9">
         <v>3.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I9">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -758,8 +790,12 @@
       <c r="H10" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I10" s="2">
+        <f>2/24</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
@@ -785,8 +821,12 @@
         <f>2/24</f>
         <v>8.3333333333333329E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I11" s="2">
+        <f>2/24</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -811,8 +851,11 @@
       <c r="H12">
         <v>1400</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I12">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -832,8 +875,12 @@
         <f>H3*H4*H10/3600</f>
         <v>3.3333333333333335E-3</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I16">
+        <f>I3*I4*I10/3600</f>
+        <v>0.46296296296296291</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -862,11 +909,15 @@
         <v>1.6666666666666667</v>
       </c>
       <c r="H17">
-        <f t="shared" ref="H17" si="1">H5*H6*H11/3600</f>
+        <f t="shared" ref="H17:I17" si="1">H5*H6*H11/3600</f>
         <v>0.1388888888888889</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I17">
+        <f t="shared" si="1"/>
+        <v>0.1388888888888889</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -895,11 +946,15 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="H18">
-        <f t="shared" ref="H18" si="3">H7*H8*H11/3600</f>
+        <f t="shared" ref="H18:I18" si="3">H7*H8*H11/3600</f>
         <v>1.3888888888888888E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I18">
+        <f t="shared" si="3"/>
+        <v>1.3888888888888888E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -928,11 +983,15 @@
         <v>2</v>
       </c>
       <c r="H19">
-        <f t="shared" ref="H19" si="5">H9*1000</f>
+        <f t="shared" ref="H19:I19" si="5">H9*1000</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I19">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -964,8 +1023,12 @@
         <f t="shared" si="6"/>
         <v>4.8458149779735692E-2</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I20">
+        <f t="shared" ref="I20" si="7">(I17+I18)/(I17+I18+I19)</f>
+        <v>8.9068825910931185E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -997,38 +1060,46 @@
         <f>24*365*(H16+H17+H18+H19)/1000</f>
         <v>27.647533333333332</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I23">
+        <f>24*365*(I16+I17+I18+I19)/1000</f>
+        <v>154.31388888888887</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B24" s="1">
-        <f t="shared" ref="B24:H24" si="7">B12/B23</f>
+        <f t="shared" ref="B24:H24" si="8">B12/B23</f>
         <v>3.0217566478646254</v>
       </c>
       <c r="C24" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.951312097705892</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>33.065658951346236</v>
       </c>
       <c r="E24" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>22.300095571838163</v>
       </c>
       <c r="F24" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>23.387905111927829</v>
       </c>
       <c r="G24" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>38.979841853213053</v>
       </c>
       <c r="H24" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>50.637428776045127</v>
+      </c>
+      <c r="I24" s="1">
+        <f t="shared" ref="I24" si="9">I12/I23</f>
+        <v>19.440894281136934</v>
       </c>
     </row>
   </sheetData>
